--- a/OnBoard/output/trust/bio/Bio_Trust_3.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -524,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I3">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F4">
@@ -571,14 +571,14 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I4">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L4">
@@ -588,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F5">
@@ -618,14 +618,19 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L5">
@@ -635,7 +640,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -650,12 +655,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F6">
@@ -665,14 +670,19 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L6">
@@ -682,7 +692,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,12 +707,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F7">
@@ -712,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -729,7 +739,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -744,12 +754,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F8">
@@ -759,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -776,7 +786,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -791,12 +801,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F9">
@@ -806,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -823,7 +833,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -838,12 +848,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F10">
@@ -853,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -870,7 +880,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -885,12 +895,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F11">
@@ -900,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -917,7 +927,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -932,12 +942,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MONOHIS</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F12">
@@ -947,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -964,7 +974,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -979,12 +989,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F13">
@@ -994,19 +1004,14 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="I13">
-        <v>187</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L13">
@@ -1016,7 +1021,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1031,12 +1036,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F14">
@@ -1046,19 +1051,14 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I14">
-        <v>138</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L14">
@@ -1068,7 +1068,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F15">
@@ -1098,19 +1098,14 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I15">
-        <v>190</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L15">
@@ -1120,7 +1115,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1135,12 +1130,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F16">
@@ -1150,19 +1145,14 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="I16">
-        <v>213</v>
+        <v>-1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>SOSEF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L16">
@@ -1172,7 +1162,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1187,12 +1177,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F17">
@@ -1202,19 +1192,14 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>SOSEF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L17">
@@ -1224,7 +1209,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1239,12 +1224,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F18">
@@ -1254,19 +1239,14 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I18">
-        <v>87</v>
+        <v>-1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>SOSEF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L18">
@@ -1276,7 +1256,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1296,7 +1276,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F19">
@@ -1306,19 +1286,14 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="I19">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L19">
@@ -1328,7 +1303,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1348,7 +1323,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F20">
@@ -1358,19 +1333,14 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="I20">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L20">
@@ -1380,7 +1350,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1400,7 +1370,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F21">
@@ -1410,14 +1380,14 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I21">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L21">
@@ -1427,7 +1397,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1457,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I22">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1474,7 +1444,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1489,12 +1459,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F23">
@@ -1504,19 +1474,14 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="I23">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>SOSEF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L23">
@@ -1526,7 +1491,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1541,12 +1506,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F24">
@@ -1556,19 +1521,14 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I24">
-        <v>164</v>
+        <v>-1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L24">
@@ -1578,7 +1538,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1593,12 +1553,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F25">
@@ -1608,19 +1568,14 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="I25">
-        <v>159</v>
+        <v>-1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>SOSEF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L25">
@@ -1630,7 +1585,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1645,12 +1600,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F26">
@@ -1660,19 +1615,14 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I26">
-        <v>116</v>
+        <v>-1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L26">
@@ -1682,7 +1632,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1697,12 +1647,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F27">
@@ -1712,19 +1662,14 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="I27">
-        <v>85</v>
+        <v>-1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>SOSEF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L27">
@@ -1734,7 +1679,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1749,12 +1694,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F28">
@@ -1764,19 +1709,14 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="I28">
-        <v>47</v>
+        <v>-1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>SOSEF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L28">
@@ -1786,7 +1726,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1801,12 +1741,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F29">
@@ -1816,19 +1756,14 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="I29">
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>SOSEF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L29">
@@ -1838,7 +1773,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1853,12 +1788,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F30">
@@ -1868,14 +1803,14 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I30">
-        <v>115</v>
+        <v>-1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L30">
@@ -1885,7 +1820,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1900,12 +1835,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F31">
@@ -1915,14 +1850,14 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I31">
-        <v>74</v>
+        <v>-1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L31">
@@ -1932,7 +1867,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1947,12 +1882,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F32">
@@ -1962,14 +1897,14 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="I32">
-        <v>145</v>
+        <v>-1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L32">
@@ -1979,7 +1914,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1994,12 +1929,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F33">
@@ -2009,14 +1944,19 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I33">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L33">
@@ -2026,7 +1966,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2041,12 +1981,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F34">
@@ -2056,14 +1996,19 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="I34">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L34">
@@ -2073,7 +2018,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2088,12 +2033,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F35">
@@ -2103,14 +2048,19 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I35">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L35">
@@ -2120,7 +2070,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2140,7 +2090,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F36">
@@ -2150,14 +2100,14 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I36">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L36">
@@ -2167,7 +2117,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2187,7 +2137,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F37">
@@ -2197,14 +2147,19 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="I37">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L37">
@@ -2214,7 +2169,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2234,7 +2189,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F38">
@@ -2244,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I38">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2256,7 +2211,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L38">
@@ -2266,7 +2221,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2286,7 +2241,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F39">
@@ -2296,14 +2251,19 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I39">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L39">
@@ -2313,7 +2273,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2333,7 +2293,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F40">
@@ -2343,10 +2303,10 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I40">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2355,7 +2315,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L40">
@@ -2365,7 +2325,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2385,7 +2345,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F41">
@@ -2395,14 +2355,19 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I41">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L41">
@@ -2412,7 +2377,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2432,7 +2397,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F42">
@@ -2442,14 +2407,19 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L42">
@@ -2459,7 +2429,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2479,7 +2449,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F43">
@@ -2489,14 +2459,19 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="I43">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L43">
@@ -2506,7 +2481,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2526,7 +2501,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F44">
@@ -2536,14 +2511,19 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L44">
@@ -2553,7 +2533,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2568,12 +2548,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F45">
@@ -2583,24 +2563,34 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="I45">
-        <v>-1</v>
+        <v>180</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L45">
         <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>SS8203</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2615,12 +2605,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F46">
@@ -2630,24 +2620,34 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="I46">
-        <v>-1</v>
+        <v>117</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L46">
         <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>SS8204</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2662,12 +2662,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F47">
@@ -2677,24 +2677,34 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="I47">
-        <v>-1</v>
+        <v>257</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L47">
         <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>SS8205</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2709,12 +2719,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F48">
@@ -2724,24 +2734,34 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="I48">
-        <v>-1</v>
+        <v>154</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L48">
         <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>SS8206</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2756,12 +2776,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F49">
@@ -2771,24 +2791,34 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>95</v>
+        <v>247</v>
       </c>
       <c r="I49">
-        <v>-1</v>
+        <v>161</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L49">
         <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>SS8207</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2803,12 +2833,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F50">
@@ -2818,24 +2848,34 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="I50">
-        <v>-1</v>
+        <v>119</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>HOLRA-5</t>
         </is>
       </c>
       <c r="L50">
         <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>SS8208</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2850,12 +2890,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F51">
@@ -2865,24 +2905,34 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="I51">
-        <v>-1</v>
+        <v>210</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L51">
         <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>SS8209</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2897,12 +2947,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F52">
@@ -2912,24 +2962,34 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>122</v>
+        <v>271</v>
       </c>
       <c r="I52">
-        <v>-1</v>
+        <v>228</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L52">
         <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>SS8210</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2944,12 +3004,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F53">
@@ -2959,24 +3019,34 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="I53">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L53">
         <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>SS8211</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2991,12 +3061,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F54">
@@ -3006,24 +3076,34 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="I54">
-        <v>-1</v>
+        <v>150</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L54">
         <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>SS8212</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3038,12 +3118,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F55">
@@ -3053,24 +3133,34 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L55">
         <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>SS8213</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3085,12 +3175,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F56">
@@ -3100,24 +3190,34 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L56">
         <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>SS8214</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3132,12 +3232,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F57">
@@ -3147,24 +3247,34 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L57">
         <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>SS8215</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3179,12 +3289,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F58">
@@ -3194,24 +3304,34 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>243</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L58">
         <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>SS8216</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3231,7 +3351,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F59">
@@ -3241,24 +3361,34 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L59">
         <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>SS8217</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3278,7 +3408,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MAJASQU</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F60">
@@ -3288,24 +3418,34 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="I60">
-        <v>-1</v>
+        <v>199</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>HOLRM-4</t>
         </is>
       </c>
       <c r="L60">
         <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>SS8218</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3325,7 +3465,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MAJACRI</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F61">
@@ -3335,24 +3475,34 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="I61">
-        <v>-1</v>
+        <v>193</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L61">
         <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>SS8219</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3382,19 +3532,19 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="I62">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L62">
@@ -3402,14 +3552,14 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>SS7717</t>
+          <t>SS8220</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3439,19 +3589,19 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="I63">
-        <v>371</v>
+        <v>147</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L63">
@@ -3459,14 +3609,14 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>SS7718</t>
+          <t>SS8221</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3496,10 +3646,10 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="I64">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3516,14 +3666,14 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>SS7719</t>
+          <t>SS8222</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3553,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="I65">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3573,14 +3723,14 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>SS7720</t>
+          <t>SS8223</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3600,7 +3750,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F66">
@@ -3610,867 +3760,17 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="I66">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>SS7721</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>240</v>
-      </c>
-      <c r="I67">
-        <v>123</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>SS7722</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>244</v>
-      </c>
-      <c r="I68">
-        <v>126</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>SS7723</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>278</v>
-      </c>
-      <c r="I69">
-        <v>203</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>SS7724</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>238</v>
-      </c>
-      <c r="I70">
-        <v>114</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>SS7725</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>287</v>
-      </c>
-      <c r="I71">
-        <v>238</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>SS7726</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>241</v>
-      </c>
-      <c r="I72">
-        <v>135</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>SS7727</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>313</v>
-      </c>
-      <c r="I73">
-        <v>311</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>SS7728</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>227</v>
-      </c>
-      <c r="I74">
-        <v>88</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>SS7729</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>264</v>
-      </c>
-      <c r="I75">
-        <v>194</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>SS7730</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>237</v>
-      </c>
-      <c r="I76">
-        <v>117</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>SS7731</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>304</v>
-      </c>
-      <c r="I77">
-        <v>296</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>SS7732</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>229</v>
-      </c>
-      <c r="I78">
-        <v>92</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>SS7733</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>242</v>
-      </c>
-      <c r="I79">
-        <v>130</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>243</v>
-      </c>
-      <c r="I80">
-        <v>121</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>243</v>
-      </c>
-      <c r="I81">
-        <v>131</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L81">
         <v>0</v>
       </c>
     </row>
